--- a/application_checklist.xlsx
+++ b/application_checklist.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carle\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carle\source\repos\HumanBenchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA52FA3-7E7F-497A-967F-11D34D43E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA3BE84-B472-4B01-8B00-1063290EF021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
+    <t>1. App &amp; arkitektur</t>
+  </si>
+  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>1. App &amp; arkitektur</t>
-  </si>
-  <si>
     <t>Arkitektur stöttar fortsatt utveckling med features.</t>
   </si>
   <si>
@@ -85,6 +85,9 @@
     <t>Skillnad på Development och Production</t>
   </si>
   <si>
+    <t>Lägg till Loggar i Backend Med Ilogger</t>
+  </si>
+  <si>
     <t>Appen går att köra utan att “hårdkoda något”</t>
   </si>
   <si>
@@ -160,18 +163,30 @@
     <t>Loggar / rapporter / larm finns för det vi vill bevaka</t>
   </si>
   <si>
+    <t>Snacka I grupp ( vad vill vi observera, vad loggar vi)</t>
+  </si>
+  <si>
     <t>Grundläggande monitoring/health finns</t>
   </si>
   <si>
+    <t>/api/health</t>
+  </si>
+  <si>
     <t>Vi vet hur vi märker att något gått fel</t>
   </si>
   <si>
+    <t>Snacka I grupp</t>
+  </si>
+  <si>
     <t>10. Integritet, Privacy &amp; GDPR</t>
   </si>
   <si>
     <t>Vi vet vilken persondata vi hanterar</t>
   </si>
   <si>
+    <t>Persondata, spel test data för varje anändare</t>
+  </si>
+  <si>
     <t>Samlar inte in mer data än nödvändigt</t>
   </si>
   <si>
@@ -215,21 +230,6 @@
   </si>
   <si>
     <t>Alla i gruppen kan förklara vad alla delar i processen gör</t>
-  </si>
-  <si>
-    <t>Lägg till Loggar i Backend Med Ilogger</t>
-  </si>
-  <si>
-    <t>Persondata, spel test data för varje anändare</t>
-  </si>
-  <si>
-    <t>Snacka I grupp</t>
-  </si>
-  <si>
-    <t>Snacka I grupp ( vad vill vi observera, vad loggar vi)</t>
-  </si>
-  <si>
-    <t>/api/health</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -272,7 +272,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -359,6 +359,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -393,6 +394,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,20 +429,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -562,478 +560,518 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C76"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="80.109375" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="101.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C75" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/application_checklist.xlsx
+++ b/application_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carle\source\repos\HumanBenchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA3BE84-B472-4B01-8B00-1063290EF021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB093F0E-455F-4C29-B3C7-F0CA5FA133BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>1. App &amp; arkitektur</t>
   </si>
@@ -608,20 +608,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.69921875" customWidth="1"/>
     <col min="2" max="2" width="101.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -629,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -637,7 +639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -645,17 +647,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -663,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -671,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -679,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -687,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -695,12 +697,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -708,12 +710,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -721,7 +726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -729,12 +734,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -742,7 +747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -750,7 +755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -758,7 +763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -766,12 +771,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -779,7 +784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -787,7 +792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -795,7 +800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -803,7 +808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -811,12 +816,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -824,12 +829,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -837,22 +842,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -860,7 +865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -868,7 +873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -876,22 +881,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -899,7 +904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -907,17 +912,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -928,7 +933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -939,7 +944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -950,12 +955,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -966,7 +971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -974,7 +979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -982,12 +987,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -995,12 +1000,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +1013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -1024,7 +1029,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -1040,17 +1045,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -1058,12 +1063,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>69</v>
       </c>
@@ -1071,7 +1076,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C75" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C15 A17:C75 B16:C16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>